--- a/config/leaderboardpayouts.xlsx
+++ b/config/leaderboardpayouts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="20% paid" sheetId="1" state="visible" r:id="rId2"/>
@@ -500,26 +500,26 @@
   </sheetPr>
   <dimension ref="A1:AC37"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC2" activeCellId="0" sqref="AC2"/>
+      <selection pane="bottomRight" activeCell="T13" activeCellId="0" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.12755102040816"/>
-    <col collapsed="false" hidden="false" max="10" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="21" min="12" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="22" min="22" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="27" min="23" style="0" width="5.12755102040816"/>
-    <col collapsed="false" hidden="false" max="28" min="28" style="0" width="7.4234693877551"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="6.75"/>
-    <col collapsed="false" hidden="false" max="1025" min="30" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="12" style="0" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="23" style="0" width="5.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="0" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="0" width="6.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="30" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1421,7 +1421,7 @@
         <v>145</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="U11" s="2" t="n">
         <v>160</v>
@@ -1500,7 +1500,7 @@
         <v>145</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="U12" s="2" t="n">
         <v>160</v>
@@ -2634,7 +2634,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -2649,7 +2649,7 @@
   </sheetPr>
   <dimension ref="A1:AF34"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -2657,18 +2657,18 @@
       <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.12755102040816"/>
-    <col collapsed="false" hidden="false" max="10" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="23" min="12" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="30" min="25" style="0" width="5.12755102040816"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="4.45408163265306"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="33" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="3" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="7.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="12" style="0" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="0" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="25" style="0" width="5.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="4.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="3.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="33" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4794,7 +4794,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -4809,7 +4809,7 @@
   </sheetPr>
   <dimension ref="A1:AF34"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -4817,18 +4817,18 @@
       <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="5.12755102040816"/>
-    <col collapsed="false" hidden="false" max="14" min="3" style="0" width="8.50510204081633"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="7.69387755102041"/>
-    <col collapsed="false" hidden="false" max="24" min="16" style="0" width="6.88265306122449"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="6.0765306122449"/>
-    <col collapsed="false" hidden="false" max="30" min="26" style="0" width="5.12755102040816"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="4.45408163265306"/>
-    <col collapsed="false" hidden="false" max="32" min="32" style="0" width="3.51020408163265"/>
-    <col collapsed="false" hidden="false" max="1025" min="33" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="3" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="7.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="16" style="0" width="6.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="0" width="6.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="26" style="0" width="5.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="0" width="4.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="0" width="3.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="33" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6944,7 +6944,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6959,13 +6959,13 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7262,7 +7262,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -7277,13 +7277,13 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7409,7 +7409,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -7424,13 +7424,13 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="14.1734693877551"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7565,7 +7565,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
